--- a/biology/Médecine/Fascia_temporal/Fascia_temporal.xlsx
+++ b/biology/Médecine/Fascia_temporal/Fascia_temporal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia temporal recouvre le muscle temporal.
 C'est un revêtement solide et fibreux, recouvert latéralement par les muscles auriculaires antérieur et supérieur, par l'aponévrose épicrânienne et par une partie du muscle orbiculaire de l'œil.
